--- a/biology/Zoologie/Atractaspis_bibronii/Atractaspis_bibronii.xlsx
+++ b/biology/Zoologie/Atractaspis_bibronii/Atractaspis_bibronii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractaspis bibronii est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractaspis bibronii est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Afrique du Sud ;
 au Swaziland ;
 au Botswana ;
@@ -554,9 +568,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Atractaspis bibronii bibroni Smith, 1849
 Atractaspis bibronii rostrata Günther, 1868</t>
         </is>
@@ -617,9 +635,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gabriel Bibron[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gabriel Bibron.
 </t>
         </is>
       </c>
@@ -648,7 +668,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Günther, 1868 : Sixth account of new species of snakes in the collection of the British Museum. Annals and magazine of natural history, sér. 4, vol. 1, p. 413-429 (texte intégral).
 Smith, 1849 : Illustrations of the zoology of South Africa, consisting chiefly of figures and descriptions of the objects of natural history collected during an expedition into the interior of South Africa, in the years 1834, 1835, and 1836; fitted out by "The Cape of Good Hope Association for Exploring Central Africa" : together with a summary of African zoology, and an inquiry into the geographical ranges of species in that quarter of the globe, vol. 3, Appendix.</t>
